--- a/community.xlsx
+++ b/community.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>社区名称</t>
   </si>
@@ -25,36 +25,42 @@
     <t>常住人口</t>
   </si>
   <si>
-    <t>电话</t>
-  </si>
-  <si>
     <t>发热诊室</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>标记名称</t>
+  </si>
+  <si>
     <t>金山街道金洲社区</t>
   </si>
   <si>
     <t>福州市仓山区金环路5号</t>
   </si>
   <si>
-    <t>0591-83853782</t>
-  </si>
-  <si>
     <t>金洲社区卫生服务站</t>
   </si>
   <si>
+    <t>福建省福州市仓山区金环路5号</t>
+  </si>
+  <si>
     <t>金山街道幸福社区</t>
   </si>
   <si>
     <t>仓山区浦上大道418号泰禾红峪A14号楼一层</t>
   </si>
   <si>
-    <t>0591-83059576</t>
-  </si>
-  <si>
     <t>丽景社区卫生服务站</t>
   </si>
   <si>
+    <t>福建省福州市仓山区葛屿路</t>
+  </si>
+  <si>
     <t>金山街道六江道社区</t>
   </si>
   <si>
@@ -64,18 +70,27 @@
     <t>中天社区卫生服务站</t>
   </si>
   <si>
+    <t>福建省福州市仓山区金桔路</t>
+  </si>
+  <si>
     <t>金山街道金环社区</t>
   </si>
   <si>
     <t>福州市仓山区金山街道金榕南路10号榕城广场8号楼一层</t>
   </si>
   <si>
+    <t>福建省福州市仓山区友兰路</t>
+  </si>
+  <si>
     <t>金山街道鑫龙社区</t>
   </si>
   <si>
     <t>福州市仓山区石边支路1号</t>
   </si>
   <si>
+    <t>福建省少年儿童图书馆金山街道鑫龙社区分馆</t>
+  </si>
+  <si>
     <t>金山街道金河社区</t>
   </si>
   <si>
@@ -88,12 +103,18 @@
     <t>仓山区金桔路230号水印长天25号底层08店旁香江社区</t>
   </si>
   <si>
+    <t>香江社区</t>
+  </si>
+  <si>
     <t>金山街道建中社区</t>
   </si>
   <si>
     <t>福州市仓山区卢滨路639号美林湾40号楼外围商铺</t>
   </si>
   <si>
+    <t>美林湾-40栋</t>
+  </si>
+  <si>
     <t>金山街道新筑社区</t>
   </si>
   <si>
@@ -103,43 +124,61 @@
     <t>水都社区卫生服务站</t>
   </si>
   <si>
+    <t>融晟红郡-北门</t>
+  </si>
+  <si>
     <t>金山街道中天社区</t>
   </si>
   <si>
     <t>福州市仓山区金山街道桔路三路131号</t>
   </si>
   <si>
+    <t>中天社区居民委员会</t>
+  </si>
+  <si>
     <t>金山街道吉龙社区</t>
   </si>
   <si>
     <t>福州市仓山区滨洲路15号吉苑C9一层吉龙社区</t>
   </si>
   <si>
+    <t>吉龙社区</t>
+  </si>
+  <si>
     <t>金山街道潘厝社区</t>
   </si>
   <si>
     <t>金山大道619号新榕金城湾3至4号楼连接处</t>
   </si>
   <si>
+    <t>新榕金城湾</t>
+  </si>
+  <si>
     <t>金山街道水都社区</t>
   </si>
   <si>
     <t>仓山区闽江大道197号江南水都配套楼一层</t>
   </si>
   <si>
+    <t>江南水都</t>
+  </si>
+  <si>
     <t>金山街道建兴洋社区</t>
   </si>
   <si>
     <t>福建省福州市仓山区金康路159号中庚城C区25栋一层</t>
   </si>
   <si>
+    <t>中庚城-C区</t>
+  </si>
+  <si>
     <t>金山街道凤岗里社区</t>
   </si>
   <si>
     <t>福建省福州市仓山区金洲南路550号金建小区一期</t>
   </si>
   <si>
-    <t>0591-83582552</t>
+    <t>金建小区-一期</t>
   </si>
   <si>
     <t>金山街道百花社区</t>
@@ -148,7 +187,7 @@
     <t>福建省福州市仓山区卢滨路639美林湾</t>
   </si>
   <si>
-    <t>0591-88079532</t>
+    <t>美林湾</t>
   </si>
   <si>
     <t>金山街道横江渡社区</t>
@@ -157,7 +196,7 @@
     <t>福建省福州市仓山区金山街道亭头路319号</t>
   </si>
   <si>
-    <t>0591-87627679</t>
+    <t>TXX眼镜配镜中心(福州店)</t>
   </si>
   <si>
     <t>金山街道金麟社区</t>
@@ -166,22 +205,34 @@
     <t>金康路150号麒麟苑16号楼</t>
   </si>
   <si>
+    <t>麒麟苑-16号楼</t>
+  </si>
+  <si>
     <t>金山街道彼岸社区</t>
   </si>
   <si>
     <t>福州市仓山区金山街道卢滨支路87号</t>
   </si>
   <si>
+    <t>彼岸居家养老服务中心</t>
+  </si>
+  <si>
     <t>金山街道金骏社区</t>
   </si>
   <si>
     <t>福州市仓山区亭头路319号万达B1区3号楼-4号楼中间裙楼</t>
   </si>
   <si>
+    <t>万达B1区-B3号楼</t>
+  </si>
+  <si>
     <t>金山街道丽景社区</t>
   </si>
   <si>
     <t>福州市仓山区金山街道金山大道415号</t>
+  </si>
+  <si>
+    <t>金山街道丽景社区劳动保障工作站</t>
   </si>
 </sst>
 </file>
@@ -189,12 +240,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +254,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF303133"/>
@@ -218,6 +275,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Calibri"/>
@@ -226,9 +297,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,24 +402,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,99 +433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,54 +449,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -433,132 +630,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,17 +640,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,6 +667,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -618,15 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,15 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -669,12 +720,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,150 +763,165 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,22 +1243,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.7368421052632" customWidth="1"/>
     <col min="2" max="2" width="50.3684210526316" customWidth="1"/>
     <col min="3" max="3" width="12.1052631578947" customWidth="1"/>
-    <col min="4" max="4" width="22.5263157894737" customWidth="1"/>
-    <col min="5" max="5" width="28.8947368421053" customWidth="1"/>
+    <col min="4" max="4" width="28.8947368421053" customWidth="1"/>
+    <col min="5" max="5" width="6.73684210526316" customWidth="1"/>
+    <col min="6" max="6" width="16.3157894736842" customWidth="1"/>
+    <col min="7" max="7" width="34.1578947368421" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,334 +1270,498 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
         <v>8500</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="3">
+        <v>1154</v>
+      </c>
+      <c r="F2" s="3">
+        <v>283</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
         <v>7850</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E3" s="3">
+        <v>801</v>
+      </c>
+      <c r="F3" s="3">
+        <v>945</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6">
         <v>6900</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
+      <c r="E4" s="3">
+        <v>432</v>
+      </c>
+      <c r="F4" s="3">
+        <v>980</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
         <v>10832</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1303</v>
+      </c>
+      <c r="F5" s="3">
+        <v>256</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6">
         <v>9000</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>704</v>
+      </c>
+      <c r="F6" s="3">
+        <v>479</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
         <v>6500</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>887</v>
+      </c>
+      <c r="F7" s="3">
+        <v>286</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6">
         <v>13620</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163</v>
+      </c>
+      <c r="F8" s="3">
+        <v>569</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6">
         <v>24120</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>577</v>
+      </c>
+      <c r="F9" s="3">
+        <v>718</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>24000</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1065</v>
+      </c>
+      <c r="F10" s="3">
+        <v>816</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6">
         <v>13563</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>381</v>
+      </c>
+      <c r="F11" s="3">
+        <v>826</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6">
         <v>10754</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>466</v>
+      </c>
+      <c r="F12" s="3">
+        <v>467</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6">
         <v>11178</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>312</v>
+      </c>
+      <c r="F13" s="3">
+        <v>332</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12546</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4">
-        <v>12546</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="E14" s="3">
+        <v>1742</v>
+      </c>
+      <c r="F14" s="3">
+        <v>578</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6">
         <v>8321</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1118</v>
+      </c>
+      <c r="F15" s="3">
+        <v>668</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>43</v>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1262</v>
+      </c>
+      <c r="F16" s="3">
+        <v>864</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>647</v>
+      </c>
+      <c r="F17" s="3">
+        <v>625</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1419</v>
+      </c>
+      <c r="F18" s="3">
+        <v>812</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6">
         <v>6218</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>935</v>
+      </c>
+      <c r="F19" s="3">
+        <v>510</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6">
         <v>11700</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1122</v>
+      </c>
+      <c r="F20" s="3">
+        <v>484</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6">
         <v>12069</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1439</v>
+      </c>
+      <c r="F21" s="3">
+        <v>780</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9">
         <v>10790</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>751</v>
+      </c>
+      <c r="F22" s="3">
+        <v>271</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/community.xlsx
+++ b/community.xlsx
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -296,6 +296,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -311,7 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,24 +342,25 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,31 +380,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,47 +411,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,19 +449,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,91 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,67 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +640,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,51 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,134 +763,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,11 +900,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,11 +909,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,7 +1243,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1257,7 +1254,7 @@
     <col min="4" max="4" width="28.8947368421053" customWidth="1"/>
     <col min="5" max="5" width="6.73684210526316" customWidth="1"/>
     <col min="6" max="6" width="16.3157894736842" customWidth="1"/>
-    <col min="7" max="7" width="34.1578947368421" customWidth="1"/>
+    <col min="7" max="7" width="45.2631578947368" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1270,498 +1267,498 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>8500</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1154</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>283</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>7850</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>801</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>945</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>6900</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>432</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>980</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10832</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1303</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>256</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>9000</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>704</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>479</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>6500</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>887</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>286</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>13620</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>163</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>569</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>24120</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>577</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>718</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>24000</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1065</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>816</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>13563</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>381</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>826</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>10754</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>466</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>467</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>11178</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>312</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>332</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>12546</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>1742</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>578</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>8321</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1118</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>668</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1262</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>864</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>647</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>625</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>1419</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>812</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>6218</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>935</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>510</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>11700</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>1122</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>484</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>12069</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1439</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>780</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>10790</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>751</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>271</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/community.xlsx
+++ b/community.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning\git\DWP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8160"/>
+    <workbookView windowWidth="18000" windowHeight="8154"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,53 +238,382 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF303133"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,46 +621,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,40 +1201,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8859649122807" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="45.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.780701754386" customWidth="1"/>
+    <col min="2" max="2" width="50.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.1052631578947" customWidth="1"/>
+    <col min="4" max="4" width="28.8859649122807" customWidth="1"/>
+    <col min="5" max="5" width="6.78070175438596" customWidth="1"/>
+    <col min="6" max="6" width="16.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="45.219298245614" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -640,17 +1247,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>8500</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2">
@@ -659,21 +1266,21 @@
       <c r="F2" s="2">
         <v>283</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>7850</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2">
@@ -682,21 +1289,21 @@
       <c r="F3" s="2">
         <v>945</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>6900</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2">
@@ -705,21 +1312,21 @@
       <c r="F4" s="2">
         <v>980</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>10832</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2">
@@ -728,21 +1335,21 @@
       <c r="F5" s="2">
         <v>256</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>9000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2">
@@ -751,21 +1358,21 @@
       <c r="F6" s="2">
         <v>479</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>6500</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2">
@@ -778,17 +1385,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>13620</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2">
@@ -797,21 +1404,21 @@
       <c r="F8" s="2">
         <v>569</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>24120</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2">
@@ -820,21 +1427,21 @@
       <c r="F9" s="2">
         <v>718</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>24000</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2">
@@ -843,21 +1450,21 @@
       <c r="F10" s="2">
         <v>816</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>13563</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2">
@@ -866,21 +1473,21 @@
       <c r="F11" s="2">
         <v>826</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>10754</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2">
@@ -889,21 +1496,21 @@
       <c r="F12" s="2">
         <v>467</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>11178</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="2">
@@ -916,17 +1523,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>12546</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2">
@@ -935,21 +1542,21 @@
       <c r="F14" s="2">
         <v>578</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>8321</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2">
@@ -958,19 +1565,19 @@
       <c r="F15" s="2">
         <v>668</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="2">
@@ -979,19 +1586,19 @@
       <c r="F16" s="2">
         <v>864</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2">
@@ -1000,19 +1607,19 @@
       <c r="F17" s="2">
         <v>625</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="2">
@@ -1021,21 +1628,21 @@
       <c r="F18" s="2">
         <v>812</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>6218</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="2">
@@ -1048,17 +1655,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>11700</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2">
@@ -1067,21 +1674,21 @@
       <c r="F20" s="2">
         <v>484</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>12069</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="2">
@@ -1090,12 +1697,12 @@
       <c r="F21" s="2">
         <v>780</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1104,7 +1711,7 @@
       <c r="C22" s="4">
         <v>10790</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2">
@@ -1113,16 +1720,16 @@
       <c r="F22" s="2">
         <v>271</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/community.xlsx
+++ b/community.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,45 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>社区名称</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>地址</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>常住人口</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>发热诊室</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>标记名称</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>w</t>
         </is>
@@ -479,771 +484,834 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>金山街道金洲社区</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>8500</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1154</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>283</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>0.03637943771592936</v>
+      <c r="J2" t="n">
+        <v>0.6605496581398433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>金山街道幸福社区</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>仓山区浦上大道418号泰禾红峪A14号楼一层</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>7850</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>801</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>945</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>福建省福州市仓山区葛屿路</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0.05228704727139491</v>
+      <c r="J3" t="n">
+        <v>0.949387713739693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>金山街道六江道社区</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>福州市仓山区金桔路826号68栋旁</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>6900</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>432</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>980</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金桔路</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>0.04580161226689081</v>
+      <c r="J4" t="n">
+        <v>0.8316302071898446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>金山街道金环社区</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金榕南路10号榕城广场8号楼一层</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>10832</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1303</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>256</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>福建省福州市仓山区友兰路</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0.03637943771592936</v>
+      <c r="J5" t="n">
+        <v>0.6605496581398433</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>金山街道鑫龙社区</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>福州市仓山区石边支路1号</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>9000</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>704</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>479</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>福建省少年儿童图书馆金山街道鑫龙社区分馆</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>0.05228704727139491</v>
+      <c r="J6" t="n">
+        <v>0.949387713739693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道287号</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>6500</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>887</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>286</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>0.03637943771592936</v>
+      <c r="J7" t="n">
+        <v>0.6605496581398433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>金山街道香江社区</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>仓山区金桔路230号水印长天25号底层08店旁香江社区</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>13620</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>163</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>569</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>香江社区</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>0.04580161226689081</v>
+      <c r="J8" t="n">
+        <v>0.8316302071898446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>金山街道建中社区</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>福州市仓山区卢滨路639号美林湾40号楼外围商铺</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>24120</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>577</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>718</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>美林湾-40栋</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0.05228704727139491</v>
+      <c r="J9" t="n">
+        <v>0.949387713739693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>金山街道新筑社区</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>福州市仓山区凤冈路569号融晟红郡小区北门二楼</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>24000</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1065</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>816</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>融晟红郡-北门</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>0.05507449329150597</v>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>金山街道中天社区</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道桔路三路131号</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>13563</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>381</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>826</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>中天社区居民委员会</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>0.04580161226689081</v>
+      <c r="J11" t="n">
+        <v>0.8316302071898446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>金山街道吉龙社区</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>福州市仓山区滨洲路15号吉苑C9一层吉龙社区</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>10754</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>466</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>467</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>吉龙社区</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>0.04580161226689081</v>
+      <c r="J12" t="n">
+        <v>0.8316302071898446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>金山街道潘厝社区</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>金山大道619号新榕金城湾3至4号楼连接处</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>11178</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>312</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>332</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>新榕金城湾</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>0.04580161226689081</v>
+      <c r="J13" t="n">
+        <v>0.8316302071898446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>金山街道水都社区</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>仓山区闽江大道197号江南水都配套楼一层</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>12546</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1742</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>578</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>江南水都</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>0.05507449329150597</v>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>金山街道建兴洋社区</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金康路159号中庚城C区25栋一层</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>8321</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1118</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>668</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>中庚城-C区</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>0.05228704727139491</v>
+      <c r="J15" t="n">
+        <v>0.949387713739693</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>金山街道凤岗里社区</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金洲南路550号金建小区一期</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1262</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>864</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>金建小区-一期</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>0.05507449329150597</v>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>金山街道百花社区</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>福建省福州市仓山区卢滨路639美林湾</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>647</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>625</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>美林湾</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>0.05228704727139491</v>
+      <c r="J17" t="n">
+        <v>0.949387713739693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>金山街道横江渡社区</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金山街道亭头路319号</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1419</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>812</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>TXX眼镜配镜中心(福州店)</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>0.05507449329150597</v>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>金山街道金麟社区</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>金康路150号麒麟苑16号楼</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>6218</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>935</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>510</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>麒麟苑-16号楼</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0.03637943771592936</v>
+      <c r="J19" t="n">
+        <v>0.6605496581398433</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>金山街道彼岸社区</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道卢滨支路87号</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>11700</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1122</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>484</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>彼岸居家养老服务中心</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>0.03637943771592936</v>
+      <c r="J20" t="n">
+        <v>0.6605496581398433</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>金山街道金骏社区</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>福州市仓山区亭头路319号万达B1区3号楼-4号楼中间裙楼</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>12069</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1439</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>780</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>万达B1区-B3号楼</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0.05507449329150597</v>
+      <c r="J21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>金山街道丽景社区</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道415号</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>10790</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>751</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>271</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>金山街道丽景社区劳动保障工作站</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>0.05228704727139491</v>
+      <c r="J22" t="n">
+        <v>0.949387713739693</v>
       </c>
     </row>
   </sheetData>

--- a/community.xlsx
+++ b/community.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>社区名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>地址</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>常住人口</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>发热诊室</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>标记名称</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>w</t>
         </is>
@@ -487,37 +492,40 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>金山街道金洲社区</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8500</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1154</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>283</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0.6605496581398433</v>
+      <c r="K2" t="n">
+        <v>0.628755332307389</v>
       </c>
     </row>
     <row r="3">
@@ -527,37 +535,40 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>金山街道幸福社区</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>仓山区浦上大道418号泰禾红峪A14号楼一层</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7850</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>801</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>945</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>福建省福州市仓山区葛屿路</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0.949387713739693</v>
+      <c r="K3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -567,37 +578,40 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>金山街道六江道社区</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>福州市仓山区金桔路826号68栋旁</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6900</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>432</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>980</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金桔路</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>0.8316302071898446</v>
+      <c r="K4" t="n">
+        <v>0.7958665147463901</v>
       </c>
     </row>
     <row r="5">
@@ -607,37 +621,40 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>金山街道金环社区</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金榕南路10号榕城广场8号楼一层</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>10832</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1303</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>256</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>福建省福州市仓山区友兰路</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0.6605496581398433</v>
+      <c r="K5" t="n">
+        <v>0.628755332307389</v>
       </c>
     </row>
     <row r="6">
@@ -647,37 +664,40 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>金山街道鑫龙社区</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>福州市仓山区石边支路1号</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>9000</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>704</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>479</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>福建省少年儿童图书馆金山街道鑫龙社区分馆</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>0.949387713739693</v>
+      <c r="K6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -687,37 +707,40 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道287号</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6500</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>887</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>286</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0.6605496581398433</v>
+      <c r="K7" t="n">
+        <v>0.628755332307389</v>
       </c>
     </row>
     <row r="8">
@@ -727,37 +750,40 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>金山街道香江社区</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>仓山区金桔路230号水印长天25号底层08店旁香江社区</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>13620</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>163</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>569</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>香江社区</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>0.8316302071898446</v>
+      <c r="K8" t="n">
+        <v>0.7958665147463901</v>
       </c>
     </row>
     <row r="9">
@@ -767,37 +793,40 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>金山街道建中社区</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>福州市仓山区卢滨路639号美林湾40号楼外围商铺</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>24120</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>577</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>718</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>美林湾-40栋</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0.949387713739693</v>
+      <c r="K9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -807,37 +836,40 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>金山街道新筑社区</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>福州市仓山区凤冈路569号融晟红郡小区北门二楼</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>24000</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1065</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>816</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>融晟红郡-北门</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
+      <c r="K10" t="n">
+        <v>0.9650740266112243</v>
       </c>
     </row>
     <row r="11">
@@ -847,37 +879,40 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>金山街道中天社区</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道桔路三路131号</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>13563</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>381</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>826</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>中天社区居民委员会</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>0.8316302071898446</v>
+      <c r="K11" t="n">
+        <v>0.7958665147463901</v>
       </c>
     </row>
     <row r="12">
@@ -887,37 +922,40 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>金山街道吉龙社区</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>福州市仓山区滨洲路15号吉苑C9一层吉龙社区</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>10754</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>466</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>467</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>吉龙社区</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>0.8316302071898446</v>
+      <c r="K12" t="n">
+        <v>0.7958665147463901</v>
       </c>
     </row>
     <row r="13">
@@ -927,37 +965,40 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>金山街道潘厝社区</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>金山大道619号新榕金城湾3至4号楼连接处</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>11178</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>312</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>332</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>新榕金城湾</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>0.8316302071898446</v>
+      <c r="K13" t="n">
+        <v>0.7958665147463901</v>
       </c>
     </row>
     <row r="14">
@@ -967,37 +1008,40 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>金山街道水都社区</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>仓山区闽江大道197号江南水都配套楼一层</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>12546</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1742</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>578</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>江南水都</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
+      <c r="K14" t="n">
+        <v>0.9650740266112243</v>
       </c>
     </row>
     <row r="15">
@@ -1007,37 +1051,40 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>金山街道建兴洋社区</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金康路159号中庚城C区25栋一层</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>8321</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1118</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>668</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>中庚城-C区</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v>0.949387713739693</v>
+      <c r="K15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1047,35 +1094,38 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>金山街道凤岗里社区</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金洲南路550号金建小区一期</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1262</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>864</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>金建小区-一期</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="K16" t="n">
+        <v>0.9650740266112243</v>
       </c>
     </row>
     <row r="17">
@@ -1085,35 +1135,38 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>金山街道百花社区</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>福建省福州市仓山区卢滨路639美林湾</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>647</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>625</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>美林湾</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>0.949387713739693</v>
+      <c r="K17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1123,35 +1176,38 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>金山街道横江渡社区</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金山街道亭头路319号</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1419</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>812</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>TXX眼镜配镜中心(福州店)</t>
         </is>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
+      <c r="K18" t="n">
+        <v>0.9650740266112243</v>
       </c>
     </row>
     <row r="19">
@@ -1161,37 +1217,40 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>金山街道金麟社区</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>金康路150号麒麟苑16号楼</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>6218</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>935</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>510</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>麒麟苑-16号楼</t>
         </is>
       </c>
-      <c r="J19" t="n">
-        <v>0.6605496581398433</v>
+      <c r="K19" t="n">
+        <v>0.628755332307389</v>
       </c>
     </row>
     <row r="20">
@@ -1201,37 +1260,40 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>金山街道彼岸社区</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道卢滨支路87号</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>11700</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1122</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>484</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>彼岸居家养老服务中心</t>
         </is>
       </c>
-      <c r="J20" t="n">
-        <v>0.6605496581398433</v>
+      <c r="K20" t="n">
+        <v>0.628755332307389</v>
       </c>
     </row>
     <row r="21">
@@ -1241,37 +1303,40 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>金山街道金骏社区</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>福州市仓山区亭头路319号万达B1区3号楼-4号楼中间裙楼</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>12069</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1439</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>780</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>万达B1区-B3号楼</t>
         </is>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
+      <c r="K21" t="n">
+        <v>0.9650740266112243</v>
       </c>
     </row>
     <row r="22">
@@ -1281,37 +1346,40 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>金山街道丽景社区</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道415号</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>10790</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>751</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>271</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>金山街道丽景社区劳动保障工作站</t>
         </is>
       </c>
-      <c r="J22" t="n">
-        <v>0.949387713739693</v>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/community.xlsx
+++ b/community.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>社区名称</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>地址</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>常住人口</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>发热诊室</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>标记名称</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>w</t>
         </is>
@@ -495,36 +500,39 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>金山街道金洲社区</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8500</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1154</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>283</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -538,36 +546,39 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>金山街道幸福社区</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>仓山区浦上大道418号泰禾红峪A14号楼一层</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>7850</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>801</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>945</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>福建省福州市仓山区葛屿路</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -581,36 +592,39 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>金山街道六江道社区</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>福州市仓山区金桔路826号68栋旁</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6900</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>432</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>980</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金桔路</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -624,36 +638,39 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>金山街道金环社区</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金榕南路10号榕城广场8号楼一层</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>10832</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1303</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>256</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>福建省福州市仓山区友兰路</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -667,36 +684,39 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>金山街道鑫龙社区</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>福州市仓山区石边支路1号</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>9000</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>704</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>479</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>福建省少年儿童图书馆金山街道鑫龙社区分馆</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -710,36 +730,39 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道287号</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6500</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>887</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>286</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -753,36 +776,39 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>金山街道香江社区</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>仓山区金桔路230号水印长天25号底层08店旁香江社区</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>13620</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>163</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>569</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>香江社区</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -796,36 +822,39 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>金山街道建中社区</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>福州市仓山区卢滨路639号美林湾40号楼外围商铺</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>24120</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>577</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>718</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>美林湾-40栋</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -839,36 +868,39 @@
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>金山街道新筑社区</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>福州市仓山区凤冈路569号融晟红郡小区北门二楼</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>24000</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>1065</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>816</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>融晟红郡-北门</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -882,36 +914,39 @@
       <c r="C11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>金山街道中天社区</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道桔路三路131号</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>13563</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>381</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>826</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>中天社区居民委员会</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -925,36 +960,39 @@
       <c r="C12" t="n">
         <v>10</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>金山街道吉龙社区</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>福州市仓山区滨洲路15号吉苑C9一层吉龙社区</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>10754</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>466</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>467</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>吉龙社区</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -968,36 +1006,39 @@
       <c r="C13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>金山街道潘厝社区</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>金山大道619号新榕金城湾3至4号楼连接处</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>11178</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>312</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>332</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>新榕金城湾</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -1011,36 +1052,39 @@
       <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>金山街道水都社区</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>仓山区闽江大道197号江南水都配套楼一层</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>12546</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>1742</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>578</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>江南水都</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1054,36 +1098,39 @@
       <c r="C15" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>金山街道建兴洋社区</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金康路159号中庚城C区25栋一层</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>8321</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>1118</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>668</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>中庚城-C区</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,34 +1144,37 @@
       <c r="C16" t="n">
         <v>14</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>金山街道凤岗里社区</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金洲南路550号金建小区一期</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>1262</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>864</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>金建小区-一期</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1138,34 +1188,37 @@
       <c r="C17" t="n">
         <v>15</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>金山街道百花社区</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>福建省福州市仓山区卢滨路639美林湾</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>647</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>625</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>美林湾</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1179,34 +1232,37 @@
       <c r="C18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>金山街道横江渡社区</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金山街道亭头路319号</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1419</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>812</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>TXX眼镜配镜中心(福州店)</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1220,36 +1276,39 @@
       <c r="C19" t="n">
         <v>17</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>金山街道金麟社区</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>金康路150号麒麟苑16号楼</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>6218</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>935</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>510</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>麒麟苑-16号楼</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -1263,36 +1322,39 @@
       <c r="C20" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>金山街道彼岸社区</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道卢滨支路87号</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>11700</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>1122</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>484</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>彼岸居家养老服务中心</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -1306,36 +1368,39 @@
       <c r="C21" t="n">
         <v>19</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>金山街道金骏社区</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>福州市仓山区亭头路319号万达B1区3号楼-4号楼中间裙楼</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>12069</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>1439</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>780</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>万达B1区-B3号楼</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1349,36 +1414,39 @@
       <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>金山街道丽景社区</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道415号</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>10790</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>751</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>271</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>金山街道丽景社区劳动保障工作站</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>1</v>
       </c>
     </row>

--- a/community.xlsx
+++ b/community.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>社区名称</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>地址</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>常住人口</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>发热诊室</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>标记名称</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>w</t>
         </is>
@@ -503,36 +508,39 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>金山街道金洲社区</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8500</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1154</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>283</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金环路5号</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -549,36 +557,39 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>金山街道幸福社区</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>仓山区浦上大道418号泰禾红峪A14号楼一层</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>7850</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>801</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>945</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>福建省福州市仓山区葛屿路</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -595,36 +606,39 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>金山街道六江道社区</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>福州市仓山区金桔路826号68栋旁</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6900</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>432</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>980</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金桔路</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -641,36 +655,39 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>金山街道金环社区</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金榕南路10号榕城广场8号楼一层</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>10832</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1303</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>256</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>福建省福州市仓山区友兰路</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -687,36 +704,39 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>金山街道鑫龙社区</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>福州市仓山区石边支路1号</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>9000</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>704</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>479</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>福建省少年儿童图书馆金山街道鑫龙社区分馆</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,36 +753,39 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道287号</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6500</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>887</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>286</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>金山街道金河社区</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -779,36 +802,39 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>金山街道香江社区</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>仓山区金桔路230号水印长天25号底层08店旁香江社区</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>13620</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>163</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>569</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>香江社区</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -825,36 +851,39 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>金山街道建中社区</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>福州市仓山区卢滨路639号美林湾40号楼外围商铺</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>24120</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>577</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>718</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>美林湾-40栋</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -871,36 +900,39 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>金山街道新筑社区</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>福州市仓山区凤冈路569号融晟红郡小区北门二楼</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>24000</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1065</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>816</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>融晟红郡-北门</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -917,36 +949,39 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>金山街道中天社区</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道桔路三路131号</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>13563</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>381</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>826</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>中天社区居民委员会</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -963,36 +998,39 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>金山街道吉龙社区</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>福州市仓山区滨洲路15号吉苑C9一层吉龙社区</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>10754</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>466</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>467</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>吉龙社区</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -1009,36 +1047,39 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>金山街道潘厝社区</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>金山大道619号新榕金城湾3至4号楼连接处</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>11178</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>中天社区卫生服务站</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>312</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>332</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>新榕金城湾</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.7958665147463901</v>
       </c>
     </row>
@@ -1055,36 +1096,39 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>金山街道水都社区</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>仓山区闽江大道197号江南水都配套楼一层</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>12546</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1742</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>578</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>江南水都</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1101,36 +1145,39 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>金山街道建兴洋社区</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金康路159号中庚城C区25栋一层</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>8321</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1118</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>668</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>中庚城-C区</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,34 +1194,37 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>金山街道凤岗里社区</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金洲南路550号金建小区一期</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1262</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>864</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>金建小区-一期</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1191,34 +1241,37 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>金山街道百花社区</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>福建省福州市仓山区卢滨路639美林湾</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>647</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>625</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>美林湾</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1235,34 +1288,37 @@
       <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>金山街道横江渡社区</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>福建省福州市仓山区金山街道亭头路319号</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1419</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>812</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>TXX眼镜配镜中心(福州店)</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1279,36 +1335,39 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>金山街道金麟社区</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>金康路150号麒麟苑16号楼</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>6218</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>935</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>510</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>麒麟苑-16号楼</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -1325,36 +1384,39 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>金山街道彼岸社区</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道卢滨支路87号</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>11700</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>金洲社区卫生服务站</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1122</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>484</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>彼岸居家养老服务中心</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>0.628755332307389</v>
       </c>
     </row>
@@ -1371,36 +1433,39 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>金山街道金骏社区</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>福州市仓山区亭头路319号万达B1区3号楼-4号楼中间裙楼</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>12069</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>水都社区卫生服务站</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>1439</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>780</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>万达B1区-B3号楼</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.9650740266112243</v>
       </c>
     </row>
@@ -1417,36 +1482,39 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>金山街道丽景社区</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>福州市仓山区金山街道金山大道415号</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>10790</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>丽景社区卫生服务站</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>751</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>271</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>金山街道丽景社区劳动保障工作站</t>
         </is>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
